--- a/help/evulshed.xlsx
+++ b/help/evulshed.xlsx
@@ -42,7 +42,7 @@
     <t>Остаток лекарственного препарата, уп</t>
   </si>
   <si>
-    <t>Разница за сутки</t>
+    <t>Разница за неделю</t>
   </si>
 </sst>
 </file>
@@ -96,12 +96,12 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -386,7 +386,7 @@
   <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D25:D26"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,215 +400,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3">
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
         <f>F5-G5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <f t="shared" ref="H6:H27" si="0">F6-G6</f>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <f t="shared" ref="H6:H18" si="0">F6-G6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3">
+      <c r="B9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3">
+      <c r="B10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
+      <c r="B11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3">
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3">
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
+      <c r="B18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3">
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
         <f>F19-G19</f>
         <v>0</v>
       </c>
